--- a/Dummy_food.xlsx
+++ b/Dummy_food.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liuc-my.sharepoint.com/personal/be22_filippini_stud_liuc_it/Documents/TESI/Tesi Beatrice Filippini/Modello NetLogo/rebound_ABM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="11_F25DC773A252ABDACC104827B19C42B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DE9C497-99D5-4097-B438-CE4266FE88D5}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC104827B19C42B45ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C470E53-619B-4F92-B794-67D81917614B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -566,7 +566,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
